--- a/output/calculoCVC_total.xlsx
+++ b/output/calculoCVC_total.xlsx
@@ -1,103 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVC -- clareza e compreensão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVC -- relevância</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,13 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -179,6 +112,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -204,12 +141,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -235,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,268 +350,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CVC -- clareza e compreensão</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CVC -- relevância</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.144230769230769</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.230769230769231</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.1442307692307692</v>
+      </c>
+      <c r="C2">
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.177884615384615</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.259615384615385</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1778846153846154</v>
+      </c>
+      <c r="C3">
+        <v>0.2596153846153846</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.331730769230769</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.456730769230769</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.3317307692307693</v>
+      </c>
+      <c r="C4">
+        <v>0.4567307692307693</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.346153846153846</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.447115384615385</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="C5">
+        <v>0.4471153846153846</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.418269230769231</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.475961538461538</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.4182692307692307</v>
+      </c>
+      <c r="C6">
+        <v>0.4759615384615384</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.447115384615385</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.4471153846153846</v>
+      </c>
+      <c r="C7">
         <v>0.5625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="C8">
         <v>0.5625</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.466346153846154</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.576923076923077</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.4663461538461539</v>
+      </c>
+      <c r="C9">
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.475961538461538</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.576923076923077</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.4759615384615384</v>
+      </c>
+      <c r="C10">
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.475961538461538</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.596153846153846</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.4759615384615384</v>
+      </c>
+      <c r="C11">
+        <v>0.5961538461538461</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.514423076923077</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.519230769230769</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.5144230769230769</v>
+      </c>
+      <c r="C12">
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.533653846153846</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.620192307692308</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.5336538461538461</v>
+      </c>
+      <c r="C13">
+        <v>0.6201923076923077</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.543269230769231</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.596153846153846</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.5432692307692307</v>
+      </c>
+      <c r="C14">
+        <v>0.5961538461538461</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.552884615384615</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.615384615384615</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.5528846153846154</v>
+      </c>
+      <c r="C15">
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.552884615384615</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.615384615384615</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 3</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.5528846153846154</v>
+      </c>
+      <c r="C16">
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.586538461538462</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.5865384615384616</v>
+      </c>
+      <c r="C17">
         <v>0.5625</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.605769230769231</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.629807692307692</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 2</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.6057692307692307</v>
+      </c>
+      <c r="C18">
+        <v>0.6298076923076923</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.605769230769231</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.634615384615385</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.6057692307692307</v>
+      </c>
+      <c r="C19">
+        <v>0.6346153846153846</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>0.625</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.658653846153846</v>
+      <c r="C20">
+        <v>0.6586538461538461</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.629807692307692</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 1</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.6346153846153846</v>
+      </c>
+      <c r="C21">
+        <v>0.6298076923076923</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.658653846153846</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0.6346153846153846</v>
+      </c>
+      <c r="C22">
+        <v>0.6586538461538461</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.682692307692308</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.663461538461538</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.6826923076923077</v>
+      </c>
+      <c r="C23">
+        <v>0.6634615384615384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>